--- a/Data Files/bitcoin/xlsx Files/prices.xlsx
+++ b/Data Files/bitcoin/xlsx Files/prices.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="1310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="1321">
   <si>
     <t>date</t>
   </si>
@@ -3944,6 +3944,39 @@
   </si>
   <si>
     <t>2023-07-31</t>
+  </si>
+  <si>
+    <t>2023-08-01</t>
+  </si>
+  <si>
+    <t>2023-08-02</t>
+  </si>
+  <si>
+    <t>2023-08-03</t>
+  </si>
+  <si>
+    <t>2023-08-04</t>
+  </si>
+  <si>
+    <t>2023-08-05</t>
+  </si>
+  <si>
+    <t>2023-08-06</t>
+  </si>
+  <si>
+    <t>2023-08-07</t>
+  </si>
+  <si>
+    <t>2023-08-08</t>
+  </si>
+  <si>
+    <t>2023-08-09</t>
+  </si>
+  <si>
+    <t>2023-08-10</t>
+  </si>
+  <si>
+    <t>2023-08-11</t>
   </si>
 </sst>
 </file>
@@ -4301,7 +4334,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1309"/>
+  <dimension ref="A1:B1320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4616,7 +4649,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>9744.636578159387</v>
+        <v>9744.636578159389</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4744,7 +4777,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>9658.606058375473</v>
+        <v>9658.606058375472</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -5440,7 +5473,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>9760.198937162193</v>
+        <v>9760.198937162191</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -5456,7 +5489,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>9059.962506871727</v>
+        <v>9059.962506871729</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -5464,7 +5497,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>9131.767275081993</v>
+        <v>9131.767275081991</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -5472,7 +5505,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>9170.361063506127</v>
+        <v>9170.361063506129</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -5576,7 +5609,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>9636.965527050057</v>
+        <v>9636.965527050055</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -5584,7 +5617,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>9662.858709002241</v>
+        <v>9662.858709002239</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -5592,7 +5625,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>9738.603356828593</v>
+        <v>9738.603356828591</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -5648,7 +5681,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>9345.960907722063</v>
+        <v>9345.960907722065</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -5672,7 +5705,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>9463.361414311787</v>
+        <v>9463.361414311788</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -5792,7 +5825,7 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>9094.318072166905</v>
+        <v>9094.318072166903</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -5832,7 +5865,7 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>9253.630980242333</v>
+        <v>9253.630980242331</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -5840,7 +5873,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>9432.172515827939</v>
+        <v>9432.172515827941</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -5864,7 +5897,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>9234.314674712627</v>
+        <v>9234.314674712628</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -5888,7 +5921,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>9247.060695963813</v>
+        <v>9247.060695963812</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -5896,7 +5929,7 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>9203.371435179699</v>
+        <v>9203.371435179701</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -5944,7 +5977,7 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>9384.379751903267</v>
+        <v>9384.379751903269</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -5992,7 +6025,7 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>10962.25848120735</v>
+        <v>10962.25848120736</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -6016,7 +6049,7 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>11116.30716368527</v>
+        <v>11116.30716368528</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -6032,7 +6065,7 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>11812.09430726851</v>
+        <v>11812.09430726852</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -6056,7 +6089,7 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>11181.91750803489</v>
+        <v>11181.91750803488</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -6120,7 +6153,7 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>11579.86795160213</v>
+        <v>11579.86795160214</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -6416,7 +6449,7 @@
         <v>264</v>
       </c>
       <c r="B264">
-        <v>10927.15031029327</v>
+        <v>10927.15031029328</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -6512,7 +6545,7 @@
         <v>276</v>
       </c>
       <c r="B276">
-        <v>10770.88134746641</v>
+        <v>10770.88134746642</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -7168,7 +7201,7 @@
         <v>358</v>
       </c>
       <c r="B358">
-        <v>22840.99170718835</v>
+        <v>22840.99170718836</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -7200,7 +7233,7 @@
         <v>362</v>
       </c>
       <c r="B362">
-        <v>24671.10771441542</v>
+        <v>24671.10771441541</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -7896,7 +7929,7 @@
         <v>449</v>
       </c>
       <c r="B449">
-        <v>54370.13755789518</v>
+        <v>54370.13755789519</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -8040,7 +8073,7 @@
         <v>467</v>
       </c>
       <c r="B467">
-        <v>58152.99326214183</v>
+        <v>58152.99326214184</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -8072,7 +8105,7 @@
         <v>471</v>
       </c>
       <c r="B471">
-        <v>63576.67604104827</v>
+        <v>63576.67604104828</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -8096,7 +8129,7 @@
         <v>474</v>
       </c>
       <c r="B474">
-        <v>61497.29956944119</v>
+        <v>61497.2995694412</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -8256,7 +8289,7 @@
         <v>494</v>
       </c>
       <c r="B494">
-        <v>56507.75943986959</v>
+        <v>56507.7594398696</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -8312,7 +8345,7 @@
         <v>501</v>
       </c>
       <c r="B501">
-        <v>49972.79539837244</v>
+        <v>49972.79539837245</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -8480,7 +8513,7 @@
         <v>522</v>
       </c>
       <c r="B522">
-        <v>39151.31618380031</v>
+        <v>39151.31618380032</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -8592,7 +8625,7 @@
         <v>536</v>
       </c>
       <c r="B536">
-        <v>38193.61914194396</v>
+        <v>38193.61914194397</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -9008,7 +9041,7 @@
         <v>588</v>
       </c>
       <c r="B588">
-        <v>43753.21786264631</v>
+        <v>43753.21786264632</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -9080,7 +9113,7 @@
         <v>597</v>
       </c>
       <c r="B597">
-        <v>44534.4548542199</v>
+        <v>44534.45485421991</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -9168,7 +9201,7 @@
         <v>608</v>
       </c>
       <c r="B608">
-        <v>48936.5372541422</v>
+        <v>48936.53725414221</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -9240,7 +9273,7 @@
         <v>617</v>
       </c>
       <c r="B617">
-        <v>52739.80016634551</v>
+        <v>52739.80016634552</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -9392,7 +9425,7 @@
         <v>636</v>
       </c>
       <c r="B636">
-        <v>42856.85516422451</v>
+        <v>42856.85516422452</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -9408,7 +9441,7 @@
         <v>638</v>
       </c>
       <c r="B638">
-        <v>42247.35572900635</v>
+        <v>42247.35572900636</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -9504,7 +9537,7 @@
         <v>650</v>
       </c>
       <c r="B650">
-        <v>55125.46033768044</v>
+        <v>55125.46033768045</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -9536,7 +9569,7 @@
         <v>654</v>
       </c>
       <c r="B654">
-        <v>57487.98588042219</v>
+        <v>57487.9858804222</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -9800,7 +9833,7 @@
         <v>687</v>
       </c>
       <c r="B687">
-        <v>63933.83544259932</v>
+        <v>63933.83544259933</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -10256,7 +10289,7 @@
         <v>744</v>
       </c>
       <c r="B744">
-        <v>42777.21102048235</v>
+        <v>42777.21102048236</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -10584,7 +10617,7 @@
         <v>785</v>
       </c>
       <c r="B785">
-        <v>37059.97940228751</v>
+        <v>37059.97940228752</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -10816,7 +10849,7 @@
         <v>814</v>
       </c>
       <c r="B814">
-        <v>42401.89559748943</v>
+        <v>42401.89559748944</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -10976,7 +11009,7 @@
         <v>834</v>
       </c>
       <c r="B834">
-        <v>39603.96515928415</v>
+        <v>39603.96515928416</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -11288,7 +11321,7 @@
         <v>873</v>
       </c>
       <c r="B873">
-        <v>29256.81337441626</v>
+        <v>29256.81337441625</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -11440,7 +11473,7 @@
         <v>892</v>
       </c>
       <c r="B892">
-        <v>30229.23683613038</v>
+        <v>30229.23683613037</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -11472,7 +11505,7 @@
         <v>896</v>
       </c>
       <c r="B896">
-        <v>26767.26917322131</v>
+        <v>26767.26917322132</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -11624,7 +11657,7 @@
         <v>915</v>
       </c>
       <c r="B915">
-        <v>19407.44743026247</v>
+        <v>19407.44743026248</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -11640,7 +11673,7 @@
         <v>917</v>
       </c>
       <c r="B917">
-        <v>19310.23321852183</v>
+        <v>19310.23321852184</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -11800,7 +11833,7 @@
         <v>937</v>
       </c>
       <c r="B937">
-        <v>22506.19957362899</v>
+        <v>22506.19957362898</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -11824,7 +11857,7 @@
         <v>940</v>
       </c>
       <c r="B940">
-        <v>21235.61231608578</v>
+        <v>21235.61231608577</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -11944,7 +11977,7 @@
         <v>955</v>
       </c>
       <c r="B955">
-        <v>23948.82955327163</v>
+        <v>23948.82955327164</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -12288,7 +12321,7 @@
         <v>998</v>
       </c>
       <c r="B998">
-        <v>19464.32266334847</v>
+        <v>19464.32266334846</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -12336,7 +12369,7 @@
         <v>1004</v>
       </c>
       <c r="B1004">
-        <v>19444.78777136298</v>
+        <v>19444.78777136297</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
@@ -12432,7 +12465,7 @@
         <v>1016</v>
       </c>
       <c r="B1016">
-        <v>19142.6947673929</v>
+        <v>19142.69476739289</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
@@ -12448,7 +12481,7 @@
         <v>1018</v>
       </c>
       <c r="B1018">
-        <v>19153.03977998699</v>
+        <v>19153.03977998698</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
@@ -12560,7 +12593,7 @@
         <v>1032</v>
       </c>
       <c r="B1032">
-        <v>20774.24749642603</v>
+        <v>20774.24749642604</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
@@ -12656,7 +12689,7 @@
         <v>1044</v>
       </c>
       <c r="B1044">
-        <v>20597.75501706083</v>
+        <v>20597.75501706084</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
@@ -13360,7 +13393,7 @@
         <v>1132</v>
       </c>
       <c r="B1132">
-        <v>23451.57765077463</v>
+        <v>23451.57765077464</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
@@ -13376,7 +13409,7 @@
         <v>1134</v>
       </c>
       <c r="B1134">
-        <v>22946.28657859123</v>
+        <v>22946.28657859124</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
@@ -13408,7 +13441,7 @@
         <v>1138</v>
       </c>
       <c r="B1138">
-        <v>21820.88650809278</v>
+        <v>21820.88650809277</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
@@ -13512,7 +13545,7 @@
         <v>1151</v>
       </c>
       <c r="B1151">
-        <v>24146.10136454522</v>
+        <v>24146.10136454523</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
@@ -13568,7 +13601,7 @@
         <v>1158</v>
       </c>
       <c r="B1158">
-        <v>23634.33348912379</v>
+        <v>23634.33348912378</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
@@ -13760,7 +13793,7 @@
         <v>1182</v>
       </c>
       <c r="B1182">
-        <v>27670.19949849683</v>
+        <v>27670.19949849684</v>
       </c>
     </row>
     <row r="1183" spans="1:2">
@@ -14040,7 +14073,7 @@
         <v>1217</v>
       </c>
       <c r="B1217">
-        <v>29217.94404680991</v>
+        <v>29217.94404680992</v>
       </c>
     </row>
     <row r="1218" spans="1:2">
@@ -14048,7 +14081,7 @@
         <v>1218</v>
       </c>
       <c r="B1218">
-        <v>29362.05621362539</v>
+        <v>29362.0562136254</v>
       </c>
     </row>
     <row r="1219" spans="1:2">
@@ -14072,7 +14105,7 @@
         <v>1221</v>
       </c>
       <c r="B1221">
-        <v>28988.32099624927</v>
+        <v>28988.32099624928</v>
       </c>
     </row>
     <row r="1222" spans="1:2">
@@ -14224,7 +14257,7 @@
         <v>1240</v>
       </c>
       <c r="B1240">
-        <v>26869.68602179078</v>
+        <v>26869.68602179077</v>
       </c>
     </row>
     <row r="1241" spans="1:2">
@@ -14248,7 +14281,7 @@
         <v>1243</v>
       </c>
       <c r="B1243">
-        <v>26475.60790253427</v>
+        <v>26475.60790253428</v>
       </c>
     </row>
     <row r="1244" spans="1:2">
@@ -14352,7 +14385,7 @@
         <v>1256</v>
       </c>
       <c r="B1256">
-        <v>26346.24454513763</v>
+        <v>26346.24454513764</v>
       </c>
     </row>
     <row r="1257" spans="1:2">
@@ -14432,7 +14465,7 @@
         <v>1266</v>
       </c>
       <c r="B1266">
-        <v>26501.04444223367</v>
+        <v>26501.04444223368</v>
       </c>
     </row>
     <row r="1267" spans="1:2">
@@ -14488,7 +14521,7 @@
         <v>1273</v>
       </c>
       <c r="B1273">
-        <v>30537.81666463479</v>
+        <v>30537.8166646348</v>
       </c>
     </row>
     <row r="1274" spans="1:2">
@@ -14752,7 +14785,7 @@
         <v>1306</v>
       </c>
       <c r="B1306">
-        <v>29200.24400129131</v>
+        <v>29200.24400129132</v>
       </c>
     </row>
     <row r="1307" spans="1:2">
@@ -14777,6 +14810,94 @@
       </c>
       <c r="B1309">
         <v>29277.75581027272</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:2">
+      <c r="A1310" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B1310">
+        <v>29257.22551026271</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:2">
+      <c r="A1311" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B1311">
+        <v>29163.6056046116</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:2">
+      <c r="A1312" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B1312">
+        <v>29258.09780169691</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:2">
+      <c r="A1313" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B1313">
+        <v>28994.49595265385</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:2">
+      <c r="A1314" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B1314">
+        <v>29036.34608849958</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:2">
+      <c r="A1315" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B1315">
+        <v>29044.47746048231</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:2">
+      <c r="A1316" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B1316">
+        <v>29070.22569492281</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:2">
+      <c r="A1317" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B1317">
+        <v>29842.8071494232</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:2">
+      <c r="A1318" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B1318">
+        <v>29482.86136198899</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:2">
+      <c r="A1319" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B1319">
+        <v>29406.76406270633</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:2">
+      <c r="A1320" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B1320">
+        <v>29361.80661261011</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/bitcoin/xlsx Files/prices.xlsx
+++ b/Data Files/bitcoin/xlsx Files/prices.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="1321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="1325">
   <si>
     <t>date</t>
   </si>
@@ -3977,6 +3977,18 @@
   </si>
   <si>
     <t>2023-08-11</t>
+  </si>
+  <si>
+    <t>2023-08-12</t>
+  </si>
+  <si>
+    <t>2023-08-13</t>
+  </si>
+  <si>
+    <t>2023-08-14</t>
+  </si>
+  <si>
+    <t>2023-08-15</t>
   </si>
 </sst>
 </file>
@@ -4334,7 +4346,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1320"/>
+  <dimension ref="A1:B1324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14809,7 +14821,7 @@
         <v>1309</v>
       </c>
       <c r="B1309">
-        <v>29277.75581027272</v>
+        <v>29220.00555232291</v>
       </c>
     </row>
     <row r="1310" spans="1:2">
@@ -14898,6 +14910,38 @@
       </c>
       <c r="B1320">
         <v>29361.80661261011</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:2">
+      <c r="A1321" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B1321">
+        <v>29396.9615909843</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:2">
+      <c r="A1322" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B1322">
+        <v>29437.75017330344</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:2">
+      <c r="A1323" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B1323">
+        <v>29327.43938048513</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:2">
+      <c r="A1324" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B1324">
+        <v>29144.07255931684</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/bitcoin/xlsx Files/prices.xlsx
+++ b/Data Files/bitcoin/xlsx Files/prices.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="1325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="1327">
   <si>
     <t>date</t>
   </si>
@@ -3989,6 +3989,12 @@
   </si>
   <si>
     <t>2023-08-15</t>
+  </si>
+  <si>
+    <t>2023-08-16</t>
+  </si>
+  <si>
+    <t>2023-08-17</t>
   </si>
 </sst>
 </file>
@@ -4346,7 +4352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1324"/>
+  <dimension ref="A1:B1326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14829,7 +14835,7 @@
         <v>1310</v>
       </c>
       <c r="B1310">
-        <v>29257.22551026271</v>
+        <v>29257.2255102627</v>
       </c>
     </row>
     <row r="1311" spans="1:2">
@@ -14942,6 +14948,22 @@
       </c>
       <c r="B1324">
         <v>29144.07255931684</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:2">
+      <c r="A1325" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B1325">
+        <v>29114.67565141242</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:2">
+      <c r="A1326" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B1326">
+        <v>27895.54510920211</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/bitcoin/xlsx Files/prices.xlsx
+++ b/Data Files/bitcoin/xlsx Files/prices.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="1327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="1350">
   <si>
     <t>date</t>
   </si>
@@ -3995,6 +3995,75 @@
   </si>
   <si>
     <t>2023-08-17</t>
+  </si>
+  <si>
+    <t>2023-08-18</t>
+  </si>
+  <si>
+    <t>2023-08-19</t>
+  </si>
+  <si>
+    <t>2023-08-20</t>
+  </si>
+  <si>
+    <t>2023-08-21</t>
+  </si>
+  <si>
+    <t>2023-08-22</t>
+  </si>
+  <si>
+    <t>2023-08-23</t>
+  </si>
+  <si>
+    <t>2023-08-24</t>
+  </si>
+  <si>
+    <t>2023-08-25</t>
+  </si>
+  <si>
+    <t>2023-08-26</t>
+  </si>
+  <si>
+    <t>2023-08-27</t>
+  </si>
+  <si>
+    <t>2023-08-28</t>
+  </si>
+  <si>
+    <t>2023-08-29</t>
+  </si>
+  <si>
+    <t>2023-08-30</t>
+  </si>
+  <si>
+    <t>2023-08-31</t>
+  </si>
+  <si>
+    <t>2023-09-01</t>
+  </si>
+  <si>
+    <t>2023-09-02</t>
+  </si>
+  <si>
+    <t>2023-09-03</t>
+  </si>
+  <si>
+    <t>2023-09-04</t>
+  </si>
+  <si>
+    <t>2023-09-05</t>
+  </si>
+  <si>
+    <t>2023-09-06</t>
+  </si>
+  <si>
+    <t>2023-09-07</t>
+  </si>
+  <si>
+    <t>2023-09-08</t>
+  </si>
+  <si>
+    <t>2023-09-09</t>
   </si>
 </sst>
 </file>
@@ -4352,7 +4421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1326"/>
+  <dimension ref="A1:B1349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14963,7 +15032,191 @@
         <v>1326</v>
       </c>
       <c r="B1326">
-        <v>27895.54510920211</v>
+        <v>27895.54510920212</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:2">
+      <c r="A1327" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B1327">
+        <v>26040.81931205392</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:2">
+      <c r="A1328" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B1328">
+        <v>26115.91295705558</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:2">
+      <c r="A1329" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B1329">
+        <v>26137.35350149368</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:2">
+      <c r="A1330" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B1330">
+        <v>26086.51127135073</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:2">
+      <c r="A1331" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B1331">
+        <v>25826.03364121723</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:2">
+      <c r="A1332" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B1332">
+        <v>26641.12006805851</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:2">
+      <c r="A1333" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B1333">
+        <v>26021.08163211241</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:2">
+      <c r="A1334" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B1334">
+        <v>25949.31275796248</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:2">
+      <c r="A1335" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B1335">
+        <v>26025.2295197059</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:2">
+      <c r="A1336" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B1336">
+        <v>26112.34304465044</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:2">
+      <c r="A1337" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B1337">
+        <v>25975.58230041972</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:2">
+      <c r="A1338" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B1338">
+        <v>27852.18330418599</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:2">
+      <c r="A1339" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1339">
+        <v>27251.96914888735</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:2">
+      <c r="A1340" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B1340">
+        <v>26179.07181383978</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:2">
+      <c r="A1341" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B1341">
+        <v>25581.65193106596</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:2">
+      <c r="A1342" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B1342">
+        <v>25845.21631827925</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:2">
+      <c r="A1343" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B1343">
+        <v>25991.65745373537</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:2">
+      <c r="A1344" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B1344">
+        <v>25871.5364941652</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:2">
+      <c r="A1345" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B1345">
+        <v>25706.43383971701</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:2">
+      <c r="A1346" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B1346">
+        <v>25643.30464824743</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:2">
+      <c r="A1347" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B1347">
+        <v>25871.77707088979</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:2">
+      <c r="A1348" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B1348">
+        <v>25880.11091714333</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:2">
+      <c r="A1349" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B1349">
+        <v>25857.72787564452</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/bitcoin/xlsx Files/prices.xlsx
+++ b/Data Files/bitcoin/xlsx Files/prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1378"/>
+  <dimension ref="A1:B1517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14102,7 +14102,7 @@
         </is>
       </c>
       <c r="B1367" t="n">
-        <v>26245.58513693955</v>
+        <v>26245.58513693956</v>
       </c>
     </row>
     <row r="1368">
@@ -14132,7 +14132,7 @@
         </is>
       </c>
       <c r="B1370" t="n">
-        <v>27024.70313864522</v>
+        <v>27024.70313864521</v>
       </c>
     </row>
     <row r="1371">
@@ -14213,6 +14213,1396 @@
       </c>
       <c r="B1378" t="n">
         <v>27902.96253787604</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
+      <c r="B1379" t="n">
+        <v>27948.10365174851</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="inlineStr">
+        <is>
+          <t>2023-10-10</t>
+        </is>
+      </c>
+      <c r="B1380" t="n">
+        <v>27593.78253443967</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="inlineStr">
+        <is>
+          <t>2023-10-11</t>
+        </is>
+      </c>
+      <c r="B1381" t="n">
+        <v>27392.2477027325</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="inlineStr">
+        <is>
+          <t>2023-10-12</t>
+        </is>
+      </c>
+      <c r="B1382" t="n">
+        <v>26842.1904390924</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="inlineStr">
+        <is>
+          <t>2023-10-13</t>
+        </is>
+      </c>
+      <c r="B1383" t="n">
+        <v>26729.13720581511</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="inlineStr">
+        <is>
+          <t>2023-10-14</t>
+        </is>
+      </c>
+      <c r="B1384" t="n">
+        <v>26841.13622064441</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="inlineStr">
+        <is>
+          <t>2023-10-15</t>
+        </is>
+      </c>
+      <c r="B1385" t="n">
+        <v>26863.18356907992</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
+      <c r="B1386" t="n">
+        <v>27150.29700140705</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="inlineStr">
+        <is>
+          <t>2023-10-17</t>
+        </is>
+      </c>
+      <c r="B1387" t="n">
+        <v>28513.30993247735</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="B1388" t="n">
+        <v>28417.72175169982</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="inlineStr">
+        <is>
+          <t>2023-10-19</t>
+        </is>
+      </c>
+      <c r="B1389" t="n">
+        <v>28328.24519813482</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="inlineStr">
+        <is>
+          <t>2023-10-20</t>
+        </is>
+      </c>
+      <c r="B1390" t="n">
+        <v>28715.74814240795</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="inlineStr">
+        <is>
+          <t>2023-10-21</t>
+        </is>
+      </c>
+      <c r="B1391" t="n">
+        <v>29677.39288847621</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="inlineStr">
+        <is>
+          <t>2023-10-22</t>
+        </is>
+      </c>
+      <c r="B1392" t="n">
+        <v>29920.07449265145</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="B1393" t="n">
+        <v>30019.38050086351</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="inlineStr">
+        <is>
+          <t>2023-10-24</t>
+        </is>
+      </c>
+      <c r="B1394" t="n">
+        <v>32953.26276083098</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="inlineStr">
+        <is>
+          <t>2023-10-25</t>
+        </is>
+      </c>
+      <c r="B1395" t="n">
+        <v>33846.72425733224</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="inlineStr">
+        <is>
+          <t>2023-10-26</t>
+        </is>
+      </c>
+      <c r="B1396" t="n">
+        <v>34471.98603167202</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="inlineStr">
+        <is>
+          <t>2023-10-27</t>
+        </is>
+      </c>
+      <c r="B1397" t="n">
+        <v>34174.45155291259</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="inlineStr">
+        <is>
+          <t>2023-10-28</t>
+        </is>
+      </c>
+      <c r="B1398" t="n">
+        <v>33899.09305644032</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="B1399" t="n">
+        <v>34092.63093283858</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B1400" t="n">
+        <v>34556.24281476162</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="inlineStr">
+        <is>
+          <t>2023-10-31</t>
+        </is>
+      </c>
+      <c r="B1401" t="n">
+        <v>34498.70391946407</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="B1402" t="n">
+        <v>34672.2892841885</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="inlineStr">
+        <is>
+          <t>2023-11-02</t>
+        </is>
+      </c>
+      <c r="B1403" t="n">
+        <v>35457.45491210553</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="inlineStr">
+        <is>
+          <t>2023-11-03</t>
+        </is>
+      </c>
+      <c r="B1404" t="n">
+        <v>34924.05545044328</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="inlineStr">
+        <is>
+          <t>2023-11-04</t>
+        </is>
+      </c>
+      <c r="B1405" t="n">
+        <v>34731.38136896784</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="inlineStr">
+        <is>
+          <t>2023-11-05</t>
+        </is>
+      </c>
+      <c r="B1406" t="n">
+        <v>35048.40783490107</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B1407" t="n">
+        <v>35061.92874919579</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B1408" t="n">
+        <v>35031.26888208706</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="inlineStr">
+        <is>
+          <t>2023-11-08</t>
+        </is>
+      </c>
+      <c r="B1409" t="n">
+        <v>35436.53762957962</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="inlineStr">
+        <is>
+          <t>2023-11-09</t>
+        </is>
+      </c>
+      <c r="B1410" t="n">
+        <v>35795.0806307102</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B1411" t="n">
+        <v>36768.42081912672</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="inlineStr">
+        <is>
+          <t>2023-11-11</t>
+        </is>
+      </c>
+      <c r="B1412" t="n">
+        <v>37344.24900072035</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="inlineStr">
+        <is>
+          <t>2023-11-12</t>
+        </is>
+      </c>
+      <c r="B1413" t="n">
+        <v>37122.72282430655</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B1414" t="n">
+        <v>37067.69698212008</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="inlineStr">
+        <is>
+          <t>2023-11-14</t>
+        </is>
+      </c>
+      <c r="B1415" t="n">
+        <v>36549.16204829837</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="inlineStr">
+        <is>
+          <t>2023-11-15</t>
+        </is>
+      </c>
+      <c r="B1416" t="n">
+        <v>35545.20143345407</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="inlineStr">
+        <is>
+          <t>2023-11-16</t>
+        </is>
+      </c>
+      <c r="B1417" t="n">
+        <v>37903.66245166294</v>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="B1418" t="n">
+        <v>36201.51611146142</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="B1419" t="n">
+        <v>36527.76022530742</v>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="inlineStr">
+        <is>
+          <t>2023-11-19</t>
+        </is>
+      </c>
+      <c r="B1420" t="n">
+        <v>36582.36844192274</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B1421" t="n">
+        <v>37413.99460790531</v>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="inlineStr">
+        <is>
+          <t>2023-11-21</t>
+        </is>
+      </c>
+      <c r="B1422" t="n">
+        <v>37489.29847080202</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="inlineStr">
+        <is>
+          <t>2023-11-22</t>
+        </is>
+      </c>
+      <c r="B1423" t="n">
+        <v>35965.36036068078</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="inlineStr">
+        <is>
+          <t>2023-11-23</t>
+        </is>
+      </c>
+      <c r="B1424" t="n">
+        <v>37464.83293220907</v>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="inlineStr">
+        <is>
+          <t>2023-11-24</t>
+        </is>
+      </c>
+      <c r="B1425" t="n">
+        <v>37293.31612742673</v>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="inlineStr">
+        <is>
+          <t>2023-11-25</t>
+        </is>
+      </c>
+      <c r="B1426" t="n">
+        <v>37738.93169747125</v>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="inlineStr">
+        <is>
+          <t>2023-11-26</t>
+        </is>
+      </c>
+      <c r="B1427" t="n">
+        <v>37809.85286625321</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B1428" t="n">
+        <v>37491.83818600814</v>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="B1429" t="n">
+        <v>37250.16905148115</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B1430" t="n">
+        <v>37802.23604377473</v>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="inlineStr">
+        <is>
+          <t>2023-11-30</t>
+        </is>
+      </c>
+      <c r="B1431" t="n">
+        <v>37810.34641654128</v>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="inlineStr">
+        <is>
+          <t>2023-12-01</t>
+        </is>
+      </c>
+      <c r="B1432" t="n">
+        <v>37711.81837585267</v>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="B1433" t="n">
+        <v>38688.25874179069</v>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="inlineStr">
+        <is>
+          <t>2023-12-03</t>
+        </is>
+      </c>
+      <c r="B1434" t="n">
+        <v>39481.66641606286</v>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
+      <c r="B1435" t="n">
+        <v>39960.27542041051</v>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="inlineStr">
+        <is>
+          <t>2023-12-05</t>
+        </is>
+      </c>
+      <c r="B1436" t="n">
+        <v>41974.33177254334</v>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="inlineStr">
+        <is>
+          <t>2023-12-06</t>
+        </is>
+      </c>
+      <c r="B1437" t="n">
+        <v>44105.94477259938</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
+      <c r="B1438" t="n">
+        <v>43788.28880825234</v>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="inlineStr">
+        <is>
+          <t>2023-12-08</t>
+        </is>
+      </c>
+      <c r="B1439" t="n">
+        <v>43270.11955970747</v>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="inlineStr">
+        <is>
+          <t>2023-12-09</t>
+        </is>
+      </c>
+      <c r="B1440" t="n">
+        <v>44202.17610943621</v>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="inlineStr">
+        <is>
+          <t>2023-12-10</t>
+        </is>
+      </c>
+      <c r="B1441" t="n">
+        <v>43745.49199189547</v>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
+      <c r="B1442" t="n">
+        <v>43757.95993761918</v>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="inlineStr">
+        <is>
+          <t>2023-12-12</t>
+        </is>
+      </c>
+      <c r="B1443" t="n">
+        <v>41200.96272610168</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="inlineStr">
+        <is>
+          <t>2023-12-13</t>
+        </is>
+      </c>
+      <c r="B1444" t="n">
+        <v>41450.81938737744</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="inlineStr">
+        <is>
+          <t>2023-12-14</t>
+        </is>
+      </c>
+      <c r="B1445" t="n">
+        <v>42931.76182603245</v>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="inlineStr">
+        <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="B1446" t="n">
+        <v>43009.5954563739</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="inlineStr">
+        <is>
+          <t>2023-12-16</t>
+        </is>
+      </c>
+      <c r="B1447" t="n">
+        <v>41992.01418722399</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="inlineStr">
+        <is>
+          <t>2023-12-17</t>
+        </is>
+      </c>
+      <c r="B1448" t="n">
+        <v>42247.06788172229</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B1449" t="n">
+        <v>41410.81963457586</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
+      </c>
+      <c r="B1450" t="n">
+        <v>42684.18255468339</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="inlineStr">
+        <is>
+          <t>2023-12-20</t>
+        </is>
+      </c>
+      <c r="B1451" t="n">
+        <v>42250.2061827975</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="inlineStr">
+        <is>
+          <t>2023-12-21</t>
+        </is>
+      </c>
+      <c r="B1452" t="n">
+        <v>43634.1241684964</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+      <c r="B1453" t="n">
+        <v>43849.69959939619</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="inlineStr">
+        <is>
+          <t>2023-12-23</t>
+        </is>
+      </c>
+      <c r="B1454" t="n">
+        <v>44003.6960216438</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="inlineStr">
+        <is>
+          <t>2023-12-24</t>
+        </is>
+      </c>
+      <c r="B1455" t="n">
+        <v>43752.03088478376</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="inlineStr">
+        <is>
+          <t>2023-12-25</t>
+        </is>
+      </c>
+      <c r="B1456" t="n">
+        <v>43034.97106309151</v>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+      <c r="B1457" t="n">
+        <v>43638.23630220092</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="inlineStr">
+        <is>
+          <t>2023-12-27</t>
+        </is>
+      </c>
+      <c r="B1458" t="n">
+        <v>42516.42694028252</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="inlineStr">
+        <is>
+          <t>2023-12-28</t>
+        </is>
+      </c>
+      <c r="B1459" t="n">
+        <v>43418.46777504291</v>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="inlineStr">
+        <is>
+          <t>2023-12-29</t>
+        </is>
+      </c>
+      <c r="B1460" t="n">
+        <v>42600.65063315619</v>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="inlineStr">
+        <is>
+          <t>2023-12-30</t>
+        </is>
+      </c>
+      <c r="B1461" t="n">
+        <v>42074.70715618848</v>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="inlineStr">
+        <is>
+          <t>2023-12-31</t>
+        </is>
+      </c>
+      <c r="B1462" t="n">
+        <v>42220.61140121376</v>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="inlineStr">
+        <is>
+          <t>2024-01-01</t>
+        </is>
+      </c>
+      <c r="B1463" t="n">
+        <v>42208.20217618647</v>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="inlineStr">
+        <is>
+          <t>2024-01-02</t>
+        </is>
+      </c>
+      <c r="B1464" t="n">
+        <v>44168.68118687473</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
+      </c>
+      <c r="B1465" t="n">
+        <v>44994.67388689237</v>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="inlineStr">
+        <is>
+          <t>2024-01-04</t>
+        </is>
+      </c>
+      <c r="B1466" t="n">
+        <v>42821.55898915799</v>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="inlineStr">
+        <is>
+          <t>2024-01-05</t>
+        </is>
+      </c>
+      <c r="B1467" t="n">
+        <v>44195.57856209971</v>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="inlineStr">
+        <is>
+          <t>2024-01-06</t>
+        </is>
+      </c>
+      <c r="B1468" t="n">
+        <v>44113.69973389081</v>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
+      </c>
+      <c r="B1469" t="n">
+        <v>43956.12071720152</v>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="B1470" t="n">
+        <v>43883.74387905174</v>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="inlineStr">
+        <is>
+          <t>2024-01-09</t>
+        </is>
+      </c>
+      <c r="B1471" t="n">
+        <v>46936.18556121751</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B1472" t="n">
+        <v>46105.94607828697</v>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="inlineStr">
+        <is>
+          <t>2024-01-11</t>
+        </is>
+      </c>
+      <c r="B1473" t="n">
+        <v>46632.31314804979</v>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="inlineStr">
+        <is>
+          <t>2024-01-12</t>
+        </is>
+      </c>
+      <c r="B1474" t="n">
+        <v>46314.35554160269</v>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="inlineStr">
+        <is>
+          <t>2024-01-13</t>
+        </is>
+      </c>
+      <c r="B1475" t="n">
+        <v>42893.92960550481</v>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="inlineStr">
+        <is>
+          <t>2024-01-14</t>
+        </is>
+      </c>
+      <c r="B1476" t="n">
+        <v>42848.47451640749</v>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="inlineStr">
+        <is>
+          <t>2024-01-15</t>
+        </is>
+      </c>
+      <c r="B1477" t="n">
+        <v>41800.93282193406</v>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="inlineStr">
+        <is>
+          <t>2024-01-16</t>
+        </is>
+      </c>
+      <c r="B1478" t="n">
+        <v>42587.33603835441</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="inlineStr">
+        <is>
+          <t>2024-01-17</t>
+        </is>
+      </c>
+      <c r="B1479" t="n">
+        <v>43148.00164342693</v>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="inlineStr">
+        <is>
+          <t>2024-01-18</t>
+        </is>
+      </c>
+      <c r="B1480" t="n">
+        <v>42713.85918693899</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="inlineStr">
+        <is>
+          <t>2024-01-19</t>
+        </is>
+      </c>
+      <c r="B1481" t="n">
+        <v>41261.39479801012</v>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="inlineStr">
+        <is>
+          <t>2024-01-20</t>
+        </is>
+      </c>
+      <c r="B1482" t="n">
+        <v>41600.94093254464</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="inlineStr">
+        <is>
+          <t>2024-01-21</t>
+        </is>
+      </c>
+      <c r="B1483" t="n">
+        <v>41626.10711003664</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="B1484" t="n">
+        <v>41541.89945706261</v>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="inlineStr">
+        <is>
+          <t>2024-01-23</t>
+        </is>
+      </c>
+      <c r="B1485" t="n">
+        <v>39504.73005758438</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="inlineStr">
+        <is>
+          <t>2024-01-24</t>
+        </is>
+      </c>
+      <c r="B1486" t="n">
+        <v>39833.45410501688</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="inlineStr">
+        <is>
+          <t>2024-01-25</t>
+        </is>
+      </c>
+      <c r="B1487" t="n">
+        <v>40123.67105847147</v>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="inlineStr">
+        <is>
+          <t>2024-01-26</t>
+        </is>
+      </c>
+      <c r="B1488" t="n">
+        <v>39938.28644155878</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="inlineStr">
+        <is>
+          <t>2024-01-27</t>
+        </is>
+      </c>
+      <c r="B1489" t="n">
+        <v>41862.9356109399</v>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="inlineStr">
+        <is>
+          <t>2024-01-28</t>
+        </is>
+      </c>
+      <c r="B1490" t="n">
+        <v>42119.61049464309</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
+      <c r="B1491" t="n">
+        <v>42026.57856232145</v>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+      <c r="B1492" t="n">
+        <v>43267.60927638767</v>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="inlineStr">
+        <is>
+          <t>2024-01-31</t>
+        </is>
+      </c>
+      <c r="B1493" t="n">
+        <v>42892.03453014447</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="B1494" t="n">
+        <v>42583.26354663417</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="inlineStr">
+        <is>
+          <t>2024-02-02</t>
+        </is>
+      </c>
+      <c r="B1495" t="n">
+        <v>43069.0434209368</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="inlineStr">
+        <is>
+          <t>2024-02-03</t>
+        </is>
+      </c>
+      <c r="B1496" t="n">
+        <v>43170.65856159975</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="inlineStr">
+        <is>
+          <t>2024-02-04</t>
+        </is>
+      </c>
+      <c r="B1497" t="n">
+        <v>42976.84829990829</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B1498" t="n">
+        <v>42599.35997055978</v>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="inlineStr">
+        <is>
+          <t>2024-02-06</t>
+        </is>
+      </c>
+      <c r="B1499" t="n">
+        <v>42648.45692113544</v>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="inlineStr">
+        <is>
+          <t>2024-02-07</t>
+        </is>
+      </c>
+      <c r="B1500" t="n">
+        <v>43087.78740814285</v>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="inlineStr">
+        <is>
+          <t>2024-02-08</t>
+        </is>
+      </c>
+      <c r="B1501" t="n">
+        <v>44247.41541547931</v>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="inlineStr">
+        <is>
+          <t>2024-02-09</t>
+        </is>
+      </c>
+      <c r="B1502" t="n">
+        <v>45338.27118978948</v>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="inlineStr">
+        <is>
+          <t>2024-02-10</t>
+        </is>
+      </c>
+      <c r="B1503" t="n">
+        <v>47143.24299107112</v>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="inlineStr">
+        <is>
+          <t>2024-02-11</t>
+        </is>
+      </c>
+      <c r="B1504" t="n">
+        <v>47768.99525124794</v>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
+      <c r="B1505" t="n">
+        <v>48189.88179303987</v>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="inlineStr">
+        <is>
+          <t>2024-02-13</t>
+        </is>
+      </c>
+      <c r="B1506" t="n">
+        <v>50050.13609456397</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="inlineStr">
+        <is>
+          <t>2024-02-14</t>
+        </is>
+      </c>
+      <c r="B1507" t="n">
+        <v>49732.14536955351</v>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="inlineStr">
+        <is>
+          <t>2024-02-15</t>
+        </is>
+      </c>
+      <c r="B1508" t="n">
+        <v>51790.16929752642</v>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="inlineStr">
+        <is>
+          <t>2024-02-16</t>
+        </is>
+      </c>
+      <c r="B1509" t="n">
+        <v>51958.23029105492</v>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="inlineStr">
+        <is>
+          <t>2024-02-17</t>
+        </is>
+      </c>
+      <c r="B1510" t="n">
+        <v>52166.43430976192</v>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="inlineStr">
+        <is>
+          <t>2024-02-18</t>
+        </is>
+      </c>
+      <c r="B1511" t="n">
+        <v>51684.51749264525</v>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="B1512" t="n">
+        <v>52138.48578873693</v>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="inlineStr">
+        <is>
+          <t>2024-02-20</t>
+        </is>
+      </c>
+      <c r="B1513" t="n">
+        <v>51764.31318548776</v>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B1514" t="n">
+        <v>52286.79372554667</v>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B1515" t="n">
+        <v>51842.75676625642</v>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B1516" t="n">
+        <v>51319.50012570267</v>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="inlineStr">
+        <is>
+          <t>2024-02-24</t>
+        </is>
+      </c>
+      <c r="B1517" t="n">
+        <v>50841.0810947709</v>
       </c>
     </row>
   </sheetData>
